--- a/answer2.xlsx
+++ b/answer2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\autograding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyama\Project\autograding\bin\Release\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600016A7-EE12-42DF-84C6-6779E141047B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53871DB-CA93-4658-A679-5CB79EF1E459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="5400" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>ex03-loop</t>
   </si>
@@ -886,6 +886,12 @@
   <si>
     <t>17_list1.c</t>
   </si>
+  <si>
+    <t>Uchida 160 60 23.437500
+SANAKA 170 70 24.221451
+Hiraki 180 80 24.691360</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -895,13 +901,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1212,21 +1218,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="409.5">
+    <row r="1" spans="1:6" ht="409.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,11 +1246,11 @@
       <c r="D1">
         <v>81</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5">
+    <row r="2" spans="1:6" ht="409.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1253,11 +1260,12 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5">
+    <row r="3" spans="1:6" ht="409.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1270,11 +1278,11 @@
       <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5">
+    <row r="4" spans="1:6" ht="409.5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1287,11 +1295,12 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="409.5">
+    <row r="5" spans="1:6" ht="409.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1304,11 +1313,11 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="409.5">
+    <row r="6" spans="1:6" ht="409.5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1318,11 +1327,12 @@
       <c r="D6" s="1">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5">
+    <row r="7" spans="1:6" ht="409.5">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1335,11 +1345,12 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="409.5">
+    <row r="8" spans="1:6" ht="409.5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1352,11 +1363,12 @@
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="409.5">
+    <row r="9" spans="1:6" ht="409.5">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1366,11 +1378,12 @@
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="409.5">
+    <row r="10" spans="1:6" ht="409.5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1383,11 +1396,12 @@
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.5">
+    <row r="11" spans="1:6" ht="409.5">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1397,11 +1411,12 @@
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="409.5">
+    <row r="12" spans="1:6" ht="409.5">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1411,11 +1426,12 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5">
+    <row r="13" spans="1:6" ht="409.5">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1425,11 +1441,12 @@
       <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="409.5">
+    <row r="14" spans="1:6" ht="409.5">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1440,10 +1457,13 @@
         <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.5">
+    <row r="15" spans="1:6" ht="409.5">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1453,11 +1473,12 @@
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="409.5">
+    <row r="16" spans="1:6" ht="409.5">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1467,7 +1488,8 @@
       <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
     </row>
